--- a/Automata_Tables.xlsx
+++ b/Automata_Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jobryan/IdeaProjects/CSC310_Assignment05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jake/IdeaProjects/CSC310_Assignment05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F893F1-E4CC-2B4D-98A8-8DACF7FA2F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FB6027-31FE-C641-AEAD-D8CB57B029B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="18140" windowWidth="25600" windowHeight="10660" xr2:uid="{F42D8254-2C0B-C845-AC2D-60A29746641E}"/>
+    <workbookView xWindow="28800" yWindow="4360" windowWidth="23680" windowHeight="16220" xr2:uid="{F42D8254-2C0B-C845-AC2D-60A29746641E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>A</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>﻿[0-9]</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -126,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -147,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F300A-7D05-7B4E-9665-407069EF3245}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +496,7 @@
     <col min="7" max="7" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -492,8 +513,11 @@
       <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -516,8 +540,11 @@
       <c r="I2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -540,8 +567,11 @@
       <c r="I3" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -564,8 +594,11 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -588,8 +621,11 @@
       <c r="I5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -604,7 +640,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -618,8 +654,34 @@
         <v>4</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="50" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -633,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="50" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
